--- a/data/trans_dic/P25_12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_12-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos de ansiedad</t>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>4,53%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>22,57%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,47%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>12,9%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,13</t>
+          <t>0,66; 5,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,51</t>
+          <t>2,08; 13,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,16</t>
+          <t>1,01; 11,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 9,55</t>
+          <t>5,4; 18,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,1</t>
+          <t>1,68; 9,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 18,62</t>
+          <t>2,89; 14,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 15,14</t>
+          <t>2,65; 10,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 32,07</t>
+          <t>8,03; 18,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,39</t>
+          <t>6,34; 15,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,77</t>
+          <t>12,66; 26,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,98</t>
+          <t>15,16; 31,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 18,24</t>
+          <t>11,66; 25,3</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 6,77</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 13,61</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 10,86</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 20,26</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 17,93</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 16,86</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>8,65%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>13,22%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,31%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>15,29%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,64%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>11,87%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,28</t>
+          <t>3,03; 10,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,36</t>
+          <t>1,42; 6,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 17,67</t>
+          <t>3,48; 17,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 15,18</t>
+          <t>3,94; 12,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 19,56</t>
+          <t>4,27; 14,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,2</t>
+          <t>3,75; 14,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 14,93</t>
+          <t>8,53; 19,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 21,07</t>
+          <t>4,62; 11,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 13,28</t>
+          <t>6,51; 14,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,56</t>
+          <t>13,06; 24,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,71</t>
+          <t>9,88; 21,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 16,05</t>
+          <t>13,59; 25,7</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 13,07</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 7,79</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 14,28</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 16,95</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,59; 16,65</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,39; 17,41</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>17,95%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,87%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,49%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>8,58%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>12,36%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,94</t>
+          <t>3,74; 11,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,67</t>
+          <t>3,07; 8,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,89</t>
+          <t>2,08; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 11,75</t>
+          <t>4,83; 12,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,67; 21,66</t>
+          <t>4,42; 11,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 21,51</t>
+          <t>6,29; 15,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 16,41</t>
+          <t>10,5; 18,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 23,24</t>
+          <t>14,07; 22,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,5</t>
+          <t>9,52; 16,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 14,26</t>
+          <t>14,26; 22,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,94</t>
+          <t>13,9; 23,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,47</t>
+          <t>19,5; 31,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 13,51</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,39; 14,21</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 10,8</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>10,41; 16,37</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 15,24</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>14,0; 21,17</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>9,56%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,06%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>22,48%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>11,13%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,11%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>16,24%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>15,7%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,02</t>
+          <t>2,81; 8,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,73</t>
+          <t>5,61; 11,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 17,35</t>
+          <t>9,3; 17,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 14,9</t>
+          <t>7,74; 15,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 21,48</t>
+          <t>5,99; 14,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,51; 24,11</t>
+          <t>9,78; 19,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 23,95</t>
+          <t>13,81; 22,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 28,34</t>
+          <t>16,07; 24,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,99</t>
+          <t>16,42; 24,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 16,76</t>
+          <t>17,45; 26,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 19,2</t>
+          <t>17,18; 27,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,16</t>
+          <t>18,06; 28,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 14,21</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 17,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 19,45</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>13,81; 19,74</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>12,35; 19,73</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 22,33</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>16,49%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,23%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>31,65%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12,8%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>12,9%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>28,64%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>21,47%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>24,42%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>24,4%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,02</t>
+          <t>2,6; 9,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,5</t>
+          <t>3,68; 9,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,72</t>
+          <t>5,56; 12,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,29; 22,81</t>
+          <t>9,98; 20,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,06; 26,91</t>
+          <t>10,88; 22,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 24,95</t>
+          <t>14,45; 25,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 22,49</t>
+          <t>14,88; 25,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,33; 37,72</t>
+          <t>15,44; 25,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 16,73</t>
+          <t>12,5; 21,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,07; 16,03</t>
+          <t>21,8; 35,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,24</t>
+          <t>25,56; 38,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,27; 28,65</t>
+          <t>22,53; 35,4</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 16,4</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,05; 16,12</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 16,06</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 26,54</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 28,71</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>20,36; 28,82</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>5,27%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,87%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>21,54%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,05%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>14,25%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>11,41%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>27,61%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>14,62%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 17,65</t>
+          <t>4,58; 17,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 16,88</t>
+          <t>5,38; 16,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 12,59</t>
+          <t>3,49; 12,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,85</t>
+          <t>6,11; 17,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 18,65</t>
+          <t>2,35; 11,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 23,4</t>
+          <t>4,68; 14,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,46</t>
+          <t>8,88; 20,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,94; 29,81</t>
+          <t>13,36; 23,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,83</t>
+          <t>11,41; 23,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 18,2</t>
+          <t>13,58; 26,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,4; 15,06</t>
+          <t>14,86; 29,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,64; 20,4</t>
+          <t>20,81; 35,43</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 16,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 18,49</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 17,01</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>11,28; 19,83</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 19,72</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>15,7; 24,78</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>8,62%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,36%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>21,85%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>10,04%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>11,21%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>10,81%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>15,24%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,35</t>
+          <t>4,47; 7,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,74</t>
+          <t>5,19; 8,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,09</t>
+          <t>5,77; 9,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,34</t>
+          <t>8,48; 12,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,51; 16,53</t>
+          <t>7,04; 10,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,23; 18,02</t>
+          <t>9,36; 13,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,68; 16,39</t>
+          <t>12,33; 16,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,42; 24,73</t>
+          <t>14,52; 18,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,46</t>
+          <t>12,79; 16,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,36</t>
+          <t>18,32; 23,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,74; 12,16</t>
+          <t>19,6; 24,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,78; 17,06</t>
+          <t>21,51; 26,73</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 11,52</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 12,8</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 12,35</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 17,3</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 16,93</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 19,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10719</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30606</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21234</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50960</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3026</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27039</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>65181</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51840</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>89340</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8234</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6992</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>37758</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>95787</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>73075</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>140299</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10138</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3315; 29483</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10913; 70174</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5158; 56308</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25439; 85824</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>706; 4150</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1272; 6242</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12443; 47895</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41356; 95049</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32572; 79380</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60398; 127693</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5533; 11638</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4494; 9754</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20194; 65684</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>64834; 141462</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>46242; 111232</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>101953; 192104</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6816; 14086</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6898; 13925</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>36396</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19094</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43713</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43291</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68247</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38487</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53573</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93981</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7185</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8845</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>104643</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>57582</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>97286</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>137272</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11499</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12607</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17349; 60987</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7983; 36188</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20673; 102279</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22736; 73583</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2128; 7356</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1839; 6898</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44060; 100874</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23473; 58014</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33704; 76088</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>65974; 124109</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4640; 10097</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6254; 11823</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>72955; 142473</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>38657; 83392</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>67847; 158796</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>100507; 183411</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8317; 16130</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8926; 16540</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44707</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36152</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27115</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54681</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6237</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>101814</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>126158</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>92286</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>129991</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9679</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13735</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>146521</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>162310</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>119401</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>184672</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14107</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>19972</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25562; 75467</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20894; 56347</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14150; 46159</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32789; 86094</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2663; 7069</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3821; 9212</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>74838; 135206</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>101069; 158693</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67809; 119628</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>101988; 162826</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7496; 12831</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10699; 17418</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>112249; 188579</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>131403; 198855</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>91590; 150341</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>145165; 228200</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10731; 17398</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16181; 24482</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33139</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55891</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>81678</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>72405</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5548</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7732</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>118870</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132256</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132744</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>144531</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11788</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12391</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>152010</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>188147</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>214422</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>216936</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>17336</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>20123</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18183; 52805</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36270; 76625</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>59199; 112127</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50822; 101214</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3475; 8464</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5484; 10788</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93819; 152535</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>107910; 162989</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>108372; 162770</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>115114; 176499</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9005; 14626</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9582; 15271</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>119075; 188487</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>157332; 227880</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>178052; 252242</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>181686; 259731</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>13639; 21790</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>16496; 24368</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27621</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>31233</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43096</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>69841</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7335</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9021</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>101258</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>99084</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>87532</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>146849</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15437</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13418</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>128879</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>130317</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>130628</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>216690</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>22772</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>22439</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12802; 46168</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18568; 48789</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27434; 60087</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>49116; 98950</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4840; 10169</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6520; 11704</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>75110; 130267</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77096; 128362</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>64118; 112461</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>112674; 182215</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12465; 18828</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10554; 16583</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>96818; 163559</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>100842; 161744</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>101327; 161616</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>177060; 267841</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>19088; 26772</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>18720; 26502</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46880</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>50798</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>35312</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>60458</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2469</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>95386</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>124859</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>109808</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>138468</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13625</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17579</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>142266</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>175657</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>145120</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>198926</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>16095</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>21654</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>24981; 96876</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>28475; 85145</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>18557; 66615</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>34609; 96636</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1099; 5330</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2146; 6721</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>62662; 141892</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>92460; 164427</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>78743; 161297</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>97822; 193276</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9400; 18881</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13250; 22561</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>99330; 202915</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>134366; 225748</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>107932; 207869</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>145121; 255220</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>11320; 21718</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>17197; 27135</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>199463</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>223775</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>252149</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>351636</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>33853</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>512613</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>586025</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>527782</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>743160</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>65948</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>72959</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>712077</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>809800</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>779931</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1094795</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>91947</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>106812</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>153794; 267267</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>179041; 281897</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>198842; 323813</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>291876; 431265</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21224; 32839</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>28150; 40250</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>442220; 581145</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>523374; 654491</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>461100; 595261</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>658464; 835154</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>59168; 75139</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>65166; 80989</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>634159; 810013</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>724047; 902643</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>699061; 870891</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>994530; 1217450</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>82453; 102161</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>97328; 116876</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
